--- a/Documentation/Journal de bord_Alessia.xlsx
+++ b/Documentation/Journal de bord_Alessia.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\2ÈME ANNÉE\2ÈME SEMESTRE\1ER TRIMESTRE\PROJET_WEB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Projet_Web\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="121">
   <si>
     <t>DATE</t>
   </si>
@@ -395,7 +395,10 @@
  / ajout des images</t>
   </si>
   <si>
-    <t xml:space="preserve">08h      </t>
+    <t xml:space="preserve">08h14 </t>
+  </si>
+  <si>
+    <t>Réparation du serveur</t>
   </si>
 </sst>
 </file>
@@ -788,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J49" sqref="J44:J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1107,7 +1110,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>44979</v>
       </c>
@@ -1452,7 +1455,9 @@
         <v>119</v>
       </c>
       <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
+      <c r="D40" s="9" t="s">
+        <v>120</v>
+      </c>
       <c r="E40" s="9"/>
     </row>
   </sheetData>
